--- a/templates/opus.xlsx
+++ b/templates/opus.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19AA37A-299C-3348-9B4B-C96FD9A912A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0977E323-D594-5040-9A59-03887A34E7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="20000" windowWidth="33420" windowHeight="12960" xr2:uid="{A4BFC58D-643C-A848-A1EC-4B4155D53582}"/>
+    <workbookView xWindow="18960" yWindow="20340" windowWidth="27780" windowHeight="12960" xr2:uid="{A4BFC58D-643C-A848-A1EC-4B4155D53582}"/>
   </bookViews>
   <sheets>
-    <sheet name="DAZHO 1-74" sheetId="1" r:id="rId1"/>
+    <sheet name="{shortname}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>totals</t>
   </si>
@@ -80,15 +80,9 @@
     <t>DOWNLOAD NOW</t>
   </si>
   <si>
-    <t>accessed:</t>
-  </si>
-  <si>
     <t>source:</t>
   </si>
   <si>
-    <t>Archives / {archive_name} / {fond_name} / {opus_name}</t>
-  </si>
-  <si>
     <t>{description}</t>
   </si>
   <si>
@@ -98,29 +92,41 @@
     <t>{lastmod}</t>
   </si>
   <si>
-    <t>{col1:linked}</t>
-  </si>
-  <si>
-    <t>{col2:linked}</t>
-  </si>
-  <si>
-    <t>{col3}</t>
-  </si>
-  <si>
-    <t>{rows}</t>
-  </si>
-  <si>
-    <t>{counta}</t>
-  </si>
-  <si>
-    <t>{sum}</t>
+    <t>{col[0]:linked}</t>
+  </si>
+  <si>
+    <t>{col[1]:linked}</t>
+  </si>
+  <si>
+    <t>{rollup:rows}</t>
+  </si>
+  <si>
+    <t>{rollup:counta}</t>
+  </si>
+  <si>
+    <t>{rollup:sum}</t>
+  </si>
+  <si>
+    <t>Archives / {parent.parent.id} / {parent.id} / {id}</t>
+  </si>
+  <si>
+    <t>{col[0]:link_status}</t>
+  </si>
+  <si>
+    <t>{col[3]}</t>
+  </si>
+  <si>
+    <t>last changed:</t>
+  </si>
+  <si>
+    <t>{col}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +235,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -250,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -321,11 +334,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -371,9 +412,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,15 +420,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -412,83 +441,86 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,16 +857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F6EFF4-BBA6-0D4D-928D-451DEEDD16B3}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
@@ -849,11 +881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -861,7 +893,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="50"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="5"/>
@@ -882,54 +914,54 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>18</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="45"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="41"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="12"/>
@@ -950,13 +982,13 @@
       <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>19</v>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -964,7 +996,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="12"/>
@@ -986,16 +1018,16 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="12"/>
@@ -1016,24 +1048,24 @@
       <c r="AC5" s="12"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -1051,85 +1083,107 @@
       <c r="AC6" s="12"/>
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="56"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+    </row>
+    <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -1148,7 +1202,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1179,34 +1233,34 @@
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
       <c r="I10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -2501,8 +2555,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://uk.wikisource.org/wiki/Архів:ДАЖО/1/74" xr:uid="{7F59F263-062C-0640-BDA1-5B63795C1E91}"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://uk.wikisource.org/wiki/%D0%90%D1%80%D1%85%D1%96%D0%B2:%D0%94%D0%90%D0%96%D0%9E/1/74/1" xr:uid="{8BF6E263-07D8-524A-9032-8C81A29472C0}"/>
-    <hyperlink ref="B8" r:id="rId3" display="Metrical books of the Kashogrod Uniate Deanery of Kovel and Lutsk counties" xr:uid="{34156759-C401-9148-884A-2C6FFE66EAC9}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://uk.wikisource.org/wiki/%D0%90%D1%80%D1%85%D1%96%D0%B2:%D0%94%D0%90%D0%96%D0%9E/1" xr:uid="{1422AAE3-57BC-6943-A4AE-2E1C071F63CA}"/>
+    <hyperlink ref="B8" r:id="rId3" display="Volyn Spiritual Consistory of Zhytomyr, Volyn Province. 1741 - 1921" xr:uid="{E214584B-0037-8B4C-B8BE-FBACEB9B3F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/templates/opus.xlsx
+++ b/templates/opus.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0977E323-D594-5040-9A59-03887A34E7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655FD21-B349-F140-ADDC-F15EEFDBF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="20340" windowWidth="27780" windowHeight="12960" xr2:uid="{A4BFC58D-643C-A848-A1EC-4B4155D53582}"/>
+    <workbookView xWindow="18960" yWindow="20340" windowWidth="37780" windowHeight="17760" xr2:uid="{A4BFC58D-643C-A848-A1EC-4B4155D53582}"/>
   </bookViews>
   <sheets>
     <sheet name="{shortname}" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>totals</t>
   </si>
@@ -116,17 +116,29 @@
     <t>{col[3]}</t>
   </si>
   <si>
-    <t>last changed:</t>
-  </si>
-  <si>
     <t>{col}</t>
+  </si>
+  <si>
+    <t>{edit:added}</t>
+  </si>
+  <si>
+    <t>{edit:changed}</t>
+  </si>
+  <si>
+    <t>ref. version:</t>
+  </si>
+  <si>
+    <t>{refmod}</t>
+  </si>
+  <si>
+    <t>version:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +254,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +279,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -515,6 +546,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -857,9 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F6EFF4-BBA6-0D4D-928D-451DEEDD16B3}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10:N10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -931,7 +971,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="P2" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
@@ -966,7 +1008,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="P3" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
@@ -985,7 +1029,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="28"/>
       <c r="C4" s="36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>17</v>
@@ -1019,8 +1063,12 @@
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33"/>
       <c r="G5" s="32"/>
@@ -1061,11 +1109,11 @@
         <v>13</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -1152,37 +1200,37 @@
         <v>25</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
